--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,496 +512,676 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.45</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>004350</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.81</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003603</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003604</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>24.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003603</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城泰安回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21.32</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003604</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城泰安回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>21.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006009</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合A</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>60.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006010</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国融融银灵活配置混合C</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.25</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>400007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>东方策略成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>260112</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城能源基建混合</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400007</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方策略成长混合</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>515450</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.58</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>002497</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>东方盛世灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007381</t>
+          <t>009590</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合A</t>
+          <t>东方盛世灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007382</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国融融信消费严选混合C</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001412</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002112</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34.53</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515450</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方标普中国A股大盘红利低波50ETF</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>001412</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>德邦鑫星价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>121001</t>
+          <t>007381</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国投瑞银融华债券</t>
+          <t>国融融信消费严选混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>008479</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>景顺长城泰申回报混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>81.30</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002497</t>
+          <t>121001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合A</t>
+          <t>国投瑞银融华债券</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009590</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东方盛世灵活配置混合C</t>
+          <t>长盛创新先锋混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28.71</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005264</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国都多策略混合</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>72.46</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>002112</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>德邦鑫星价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>007382</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>国融融信消费严选混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>005264</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>国都多策略混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008479</t>
+          <t>006009</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>景顺长城泰申回报混合</t>
+          <t>国融融银灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>006010</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>国融融银灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,25 +2382,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>68.13</t>
-        </is>
-      </c>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2390,7 +2391,6 @@
           <t>国融融君灵活配置混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>84.76</t>
@@ -2406,6 +2406,822 @@
       </c>
       <c r="H32" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3227,4 +3228,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004946</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009335</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004947</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富盈润混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4386,4 +4387,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4395,7 +4396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4406,17 +4407,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4426,14 +4447,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.25</v>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4442,14 +4485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.14</v>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4458,14 +4523,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.18</v>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4474,13 +4561,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4946,7 +4947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4957,17 +4958,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4977,14 +4998,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
+          <t>002415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4993,14 +5036,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5009,14 +5074,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.14</v>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5025,14 +5112,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.18</v>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5041,13 +5150,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5345,7 +5346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5356,17 +5357,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5376,14 +5397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5392,14 +5435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5408,14 +5473,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5424,14 +5511,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.14</v>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5440,14 +5549,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.18</v>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5456,13 +5587,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>0.37</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.32</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3293,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4109,7 +4220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5336,7 +5447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600377-宁沪高速.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,11 +522,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>0.37</v>
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>2.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003603</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003604</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城泰安回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011433</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010545</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加聚隆六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010546</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加聚隆六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加聚优一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -710,7 +2017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1696,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2246,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +4711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4220,7 +5527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5445,744 +6752,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3019</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1792</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1743</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009077</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009078</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳进混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>33.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0823</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0795</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003603</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城泰安回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003604</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城泰安回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>21.32</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>